--- a/biology/Zoologie/Agamodon_anguliceps/Agamodon_anguliceps.xlsx
+++ b/biology/Zoologie/Agamodon_anguliceps/Agamodon_anguliceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agamodon anguliceps est une espèce d'amphisbènes de la famille des Trogonophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agamodon anguliceps est une espèce d'amphisbènes de la famille des Trogonophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Somalie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Somalie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 décembre 2013) :
 Agamodon anguliceps anguliceps Peters, 1882
 Agamodon anguliceps immaculatus Calabresi, 1927</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calabresi, 1927 : Anfibi e rettili raccolti nella Somalia dai Prof f. G. Stefanini e N. Puccioni (Gennaio-Luglio 1924). Atti della Società Italiana di Scienze Naturali e del Museo Civico di Storia Naturale in Milano, vol. 66, p. 14-60.
 Peters, 1882 : Über eine neue Art und Gattung der Amphisbaenoiden, Agamodon anguliceps, mit eingewachsenen Zähnen, aus Barava (Ostafrica) und über die zu den Trogonophides gehörigen Gattungen. Sitzungsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1882, p. 579-584 (texte intégral).</t>
